--- a/lineage_results.xlsx
+++ b/lineage_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YBQB7360\Documents\Data gouvernance\ocm_data_gouv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD95FA-C5E9-45B0-8302-5095B51F625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A661C87-946D-47BE-A4F6-2F9B6FE59205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3345" yWindow="6255" windowWidth="11475" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
